--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A6EBB-3AAE-4C69-9E2E-92A1A5DCA538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1420,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -1857,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1888,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -1902,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1913,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F71EB4-C224-473B-B03E-2818F6439620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97720C8A-4B03-4406-82DC-7F3CD05989A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97720C8A-4B03-4406-82DC-7F3CD05989A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80152FE1-131E-4AF6-8AF2-C79FD143831C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2191,8 +2191,8 @@
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
+      <c r="D13" s="7" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80152FE1-131E-4AF6-8AF2-C79FD143831C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000078E0-6E6A-448D-A6D7-A10DE0EC8774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000078E0-6E6A-448D-A6D7-A10DE0EC8774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC3492-64D1-48A2-9374-0C9B73646837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2043,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC3492-64D1-48A2-9374-0C9B73646837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A7D39B-FFB9-44F9-A39A-5B938ACC1DEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
     <t>find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
@@ -1426,6 +1423,9 @@
   </si>
   <si>
     <t xml:space="preserve"> GITHUB LINK : </t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array ( More of DP Problem)</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2056,23 +2056,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>0</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2094,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2108,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2122,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2136,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2164,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2192,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2205,8 +2205,8 @@
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
+      <c r="D14" s="7" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>466</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -2329,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -2427,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -2605,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>1</v>
@@ -2619,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
@@ -2647,10 +2647,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
@@ -2675,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
@@ -2689,10 +2689,10 @@
         <v>7</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
@@ -2703,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
@@ -2717,10 +2717,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -2731,10 +2731,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -2750,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>1</v>
@@ -2764,10 +2764,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1</v>
@@ -2778,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1</v>
@@ -2792,10 +2792,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -2806,10 +2806,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
@@ -2820,10 +2820,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1</v>
@@ -2834,10 +2834,10 @@
         <v>7</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1</v>
@@ -2848,10 +2848,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1</v>
@@ -2862,10 +2862,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1</v>
@@ -2876,10 +2876,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1</v>
@@ -2890,10 +2890,10 @@
         <v>11</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1</v>
@@ -2904,10 +2904,10 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
@@ -2918,10 +2918,10 @@
         <v>13</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1</v>
@@ -2932,10 +2932,10 @@
         <v>14</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1</v>
@@ -2946,10 +2946,10 @@
         <v>15</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1</v>
@@ -2960,10 +2960,10 @@
         <v>16</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1</v>
@@ -2974,10 +2974,10 @@
         <v>17</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1</v>
@@ -2988,10 +2988,10 @@
         <v>18</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1</v>
@@ -3002,10 +3002,10 @@
         <v>19</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
@@ -3016,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -3030,10 +3030,10 @@
         <v>21</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1</v>
@@ -3044,10 +3044,10 @@
         <v>22</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -3058,10 +3058,10 @@
         <v>23</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1</v>
@@ -3072,10 +3072,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1</v>
@@ -3086,10 +3086,10 @@
         <v>25</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1</v>
@@ -3100,10 +3100,10 @@
         <v>26</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
@@ -3114,10 +3114,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>1</v>
@@ -3128,10 +3128,10 @@
         <v>28</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>1</v>
@@ -3142,10 +3142,10 @@
         <v>29</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>1</v>
@@ -3156,10 +3156,10 @@
         <v>30</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -3170,10 +3170,10 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>1</v>
@@ -3184,10 +3184,10 @@
         <v>32</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
@@ -3198,10 +3198,10 @@
         <v>33</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
@@ -3212,10 +3212,10 @@
         <v>34</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
@@ -3226,10 +3226,10 @@
         <v>35</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -3240,10 +3240,10 @@
         <v>36</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1</v>
@@ -3254,10 +3254,10 @@
         <v>37</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
@@ -3268,10 +3268,10 @@
         <v>38</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>1</v>
@@ -3282,10 +3282,10 @@
         <v>39</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -3296,10 +3296,10 @@
         <v>40</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -3310,10 +3310,10 @@
         <v>41</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>1</v>
@@ -3324,10 +3324,10 @@
         <v>42</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>1</v>
@@ -3338,10 +3338,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>1</v>
@@ -3357,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -3371,10 +3371,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
@@ -3385,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>1</v>
@@ -3399,10 +3399,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>1</v>
@@ -3413,10 +3413,10 @@
         <v>5</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>1</v>
@@ -3427,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>1</v>
@@ -3441,10 +3441,10 @@
         <v>7</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>1</v>
@@ -3455,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1</v>
@@ -3469,10 +3469,10 @@
         <v>9</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
@@ -3483,10 +3483,10 @@
         <v>10</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>1</v>
@@ -3497,10 +3497,10 @@
         <v>11</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>1</v>
@@ -3511,10 +3511,10 @@
         <v>12</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>1</v>
@@ -3525,10 +3525,10 @@
         <v>13</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>1</v>
@@ -3539,10 +3539,10 @@
         <v>14</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>1</v>
@@ -3553,10 +3553,10 @@
         <v>15</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>1</v>
@@ -3567,10 +3567,10 @@
         <v>16</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>1</v>
@@ -3581,10 +3581,10 @@
         <v>17</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>1</v>
@@ -3595,10 +3595,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -3609,10 +3609,10 @@
         <v>19</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         <v>20</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>21</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
@@ -3651,10 +3651,10 @@
         <v>22</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
@@ -3665,10 +3665,10 @@
         <v>23</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
@@ -3679,10 +3679,10 @@
         <v>24</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1</v>
@@ -3693,10 +3693,10 @@
         <v>25</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>1</v>
@@ -3707,10 +3707,10 @@
         <v>26</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>1</v>
@@ -3721,10 +3721,10 @@
         <v>27</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>1</v>
@@ -3735,10 +3735,10 @@
         <v>28</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>29</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>1</v>
@@ -3763,10 +3763,10 @@
         <v>30</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>1</v>
@@ -3777,10 +3777,10 @@
         <v>31</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>1</v>
@@ -3791,10 +3791,10 @@
         <v>32</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>1</v>
@@ -3805,10 +3805,10 @@
         <v>33</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>1</v>
@@ -3819,10 +3819,10 @@
         <v>34</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>1</v>
@@ -3833,10 +3833,10 @@
         <v>35</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>1</v>
@@ -3847,10 +3847,10 @@
         <v>36</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>1</v>
@@ -3865,10 +3865,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>1</v>
@@ -3879,10 +3879,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>1</v>
@@ -3893,10 +3893,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>1</v>
@@ -3907,10 +3907,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>1</v>
@@ -3921,10 +3921,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>1</v>
@@ -3935,10 +3935,10 @@
         <v>6</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>1</v>
@@ -3949,10 +3949,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>1</v>
@@ -3963,10 +3963,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>1</v>
@@ -3977,10 +3977,10 @@
         <v>9</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>1</v>
@@ -3991,10 +3991,10 @@
         <v>10</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>1</v>
@@ -4005,10 +4005,10 @@
         <v>11</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>1</v>
@@ -4019,10 +4019,10 @@
         <v>12</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>1</v>
@@ -4033,10 +4033,10 @@
         <v>13</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>1</v>
@@ -4047,10 +4047,10 @@
         <v>14</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>1</v>
@@ -4061,10 +4061,10 @@
         <v>15</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>1</v>
@@ -4075,10 +4075,10 @@
         <v>16</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>1</v>
@@ -4089,10 +4089,10 @@
         <v>17</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         <v>18</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>1</v>
@@ -4117,10 +4117,10 @@
         <v>19</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>1</v>
@@ -4131,10 +4131,10 @@
         <v>20</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>1</v>
@@ -4145,10 +4145,10 @@
         <v>21</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>1</v>
@@ -4159,10 +4159,10 @@
         <v>22</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1</v>
@@ -4173,10 +4173,10 @@
         <v>23</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>1</v>
@@ -4187,10 +4187,10 @@
         <v>24</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>1</v>
@@ -4201,10 +4201,10 @@
         <v>25</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>1</v>
@@ -4215,10 +4215,10 @@
         <v>26</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>1</v>
@@ -4229,10 +4229,10 @@
         <v>27</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>1</v>
@@ -4243,10 +4243,10 @@
         <v>28</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>1</v>
@@ -4257,10 +4257,10 @@
         <v>29</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>1</v>
@@ -4271,10 +4271,10 @@
         <v>30</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>1</v>
@@ -4285,10 +4285,10 @@
         <v>31</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>1</v>
@@ -4299,10 +4299,10 @@
         <v>32</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>1</v>
@@ -4313,10 +4313,10 @@
         <v>33</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>1</v>
@@ -4327,10 +4327,10 @@
         <v>34</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>1</v>
@@ -4341,10 +4341,10 @@
         <v>35</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>1</v>
@@ -4355,10 +4355,10 @@
         <v>36</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>1</v>
@@ -4373,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="B177" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>1</v>
@@ -4387,10 +4387,10 @@
         <v>2</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>1</v>
@@ -4401,10 +4401,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>1</v>
@@ -4415,10 +4415,10 @@
         <v>4</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>1</v>
@@ -4429,10 +4429,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>1</v>
@@ -4443,10 +4443,10 @@
         <v>6</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>1</v>
@@ -4457,10 +4457,10 @@
         <v>7</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>1</v>
@@ -4471,10 +4471,10 @@
         <v>8</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>1</v>
@@ -4485,10 +4485,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>1</v>
@@ -4499,10 +4499,10 @@
         <v>10</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>1</v>
@@ -4513,10 +4513,10 @@
         <v>11</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>1</v>
@@ -4527,10 +4527,10 @@
         <v>12</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>1</v>
@@ -4541,10 +4541,10 @@
         <v>13</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>1</v>
@@ -4555,10 +4555,10 @@
         <v>14</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>1</v>
@@ -4569,10 +4569,10 @@
         <v>15</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>1</v>
@@ -4583,10 +4583,10 @@
         <v>16</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>1</v>
@@ -4597,10 +4597,10 @@
         <v>17</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>1</v>
@@ -4611,10 +4611,10 @@
         <v>18</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>1</v>
@@ -4625,10 +4625,10 @@
         <v>19</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>1</v>
@@ -4639,10 +4639,10 @@
         <v>20</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>1</v>
@@ -4653,10 +4653,10 @@
         <v>21</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>22</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>1</v>
@@ -4681,10 +4681,10 @@
         <v>23</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>1</v>
@@ -4695,10 +4695,10 @@
         <v>24</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>1</v>
@@ -4709,10 +4709,10 @@
         <v>25</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>1</v>
@@ -4723,10 +4723,10 @@
         <v>26</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>1</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>1</v>
@@ -4751,10 +4751,10 @@
         <v>28</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>1</v>
@@ -4765,10 +4765,10 @@
         <v>29</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>1</v>
@@ -4779,10 +4779,10 @@
         <v>30</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>1</v>
@@ -4793,10 +4793,10 @@
         <v>31</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>1</v>
@@ -4807,10 +4807,10 @@
         <v>32</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>1</v>
@@ -4821,10 +4821,10 @@
         <v>33</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>1</v>
@@ -4835,10 +4835,10 @@
         <v>34</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>1</v>
@@ -4849,10 +4849,10 @@
         <v>35</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>1</v>
@@ -4873,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>1</v>
@@ -4887,10 +4887,10 @@
         <v>2</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>1</v>
@@ -4901,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>1</v>
@@ -4915,10 +4915,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>1</v>
@@ -4929,10 +4929,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1</v>
@@ -4957,10 +4957,10 @@
         <v>7</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>1</v>
@@ -4971,10 +4971,10 @@
         <v>8</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>1</v>
@@ -4985,10 +4985,10 @@
         <v>9</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>1</v>
@@ -4999,10 +4999,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>1</v>
@@ -5013,10 +5013,10 @@
         <v>11</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>1</v>
@@ -5027,10 +5027,10 @@
         <v>12</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>1</v>
@@ -5041,10 +5041,10 @@
         <v>13</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>1</v>
@@ -5055,10 +5055,10 @@
         <v>14</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>1</v>
@@ -5069,10 +5069,10 @@
         <v>15</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>1</v>
@@ -5083,10 +5083,10 @@
         <v>16</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>1</v>
@@ -5097,10 +5097,10 @@
         <v>17</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>1</v>
@@ -5111,10 +5111,10 @@
         <v>18</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>1</v>
@@ -5125,10 +5125,10 @@
         <v>19</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>1</v>
@@ -5139,10 +5139,10 @@
         <v>20</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>1</v>
@@ -5153,10 +5153,10 @@
         <v>21</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>1</v>
@@ -5167,10 +5167,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>1</v>
@@ -5189,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1</v>
@@ -5203,10 +5203,10 @@
         <v>2</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1</v>
@@ -5217,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1</v>
@@ -5231,10 +5231,10 @@
         <v>4</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1</v>
@@ -5245,10 +5245,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1</v>
@@ -5259,10 +5259,10 @@
         <v>6</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1</v>
@@ -5273,10 +5273,10 @@
         <v>7</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1</v>
@@ -5287,10 +5287,10 @@
         <v>8</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1</v>
@@ -5301,10 +5301,10 @@
         <v>9</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1</v>
@@ -5315,10 +5315,10 @@
         <v>10</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1</v>
@@ -5329,10 +5329,10 @@
         <v>11</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         <v>12</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1</v>
@@ -5357,10 +5357,10 @@
         <v>13</v>
       </c>
       <c r="B250" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1</v>
@@ -5371,10 +5371,10 @@
         <v>14</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1</v>
@@ -5385,10 +5385,10 @@
         <v>15</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1</v>
@@ -5399,10 +5399,10 @@
         <v>16</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1</v>
@@ -5413,10 +5413,10 @@
         <v>17</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1</v>
@@ -5427,10 +5427,10 @@
         <v>18</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1</v>
@@ -5441,10 +5441,10 @@
         <v>19</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1</v>
@@ -5455,10 +5455,10 @@
         <v>20</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1</v>
@@ -5469,10 +5469,10 @@
         <v>21</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1</v>
@@ -5483,10 +5483,10 @@
         <v>22</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1</v>
@@ -5497,10 +5497,10 @@
         <v>23</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1</v>
@@ -5511,10 +5511,10 @@
         <v>24</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1</v>
@@ -5525,10 +5525,10 @@
         <v>25</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1</v>
@@ -5539,10 +5539,10 @@
         <v>26</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1</v>
@@ -5553,10 +5553,10 @@
         <v>27</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1</v>
@@ -5567,10 +5567,10 @@
         <v>28</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1</v>
@@ -5581,10 +5581,10 @@
         <v>29</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1</v>
@@ -5595,10 +5595,10 @@
         <v>30</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1</v>
@@ -5609,10 +5609,10 @@
         <v>31</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         <v>32</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1</v>
@@ -5637,10 +5637,10 @@
         <v>33</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1</v>
@@ -5651,10 +5651,10 @@
         <v>34</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1</v>
@@ -5665,10 +5665,10 @@
         <v>35</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1</v>
@@ -5687,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1</v>
@@ -5701,10 +5701,10 @@
         <v>2</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1</v>
@@ -5715,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1</v>
@@ -5729,10 +5729,10 @@
         <v>4</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         <v>5</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1</v>
@@ -5757,10 +5757,10 @@
         <v>6</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1</v>
@@ -5771,10 +5771,10 @@
         <v>7</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1</v>
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1</v>
@@ -5799,10 +5799,10 @@
         <v>9</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1</v>
@@ -5813,10 +5813,10 @@
         <v>10</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1</v>
@@ -5827,10 +5827,10 @@
         <v>11</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1</v>
@@ -5841,10 +5841,10 @@
         <v>12</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1</v>
@@ -5855,10 +5855,10 @@
         <v>13</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1</v>
@@ -5869,10 +5869,10 @@
         <v>14</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1</v>
@@ -5883,10 +5883,10 @@
         <v>15</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1</v>
@@ -5897,10 +5897,10 @@
         <v>16</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1</v>
@@ -5911,10 +5911,10 @@
         <v>17</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1</v>
@@ -5925,10 +5925,10 @@
         <v>18</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1</v>
@@ -5939,10 +5939,10 @@
         <v>19</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>1</v>
@@ -5961,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>1</v>
@@ -5975,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1</v>
@@ -5989,10 +5989,10 @@
         <v>3</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1</v>
@@ -6003,10 +6003,10 @@
         <v>4</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1</v>
@@ -6017,10 +6017,10 @@
         <v>5</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>1</v>
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>1</v>
@@ -6045,10 +6045,10 @@
         <v>7</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>1</v>
@@ -6059,10 +6059,10 @@
         <v>8</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>1</v>
@@ -6073,10 +6073,10 @@
         <v>9</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>1</v>
@@ -6101,10 +6101,10 @@
         <v>11</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>1</v>
@@ -6115,10 +6115,10 @@
         <v>12</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>1</v>
@@ -6129,10 +6129,10 @@
         <v>13</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>1</v>
@@ -6143,10 +6143,10 @@
         <v>14</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>1</v>
@@ -6157,10 +6157,10 @@
         <v>15</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>1</v>
@@ -6171,10 +6171,10 @@
         <v>16</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>1</v>
@@ -6185,10 +6185,10 @@
         <v>17</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>1</v>
@@ -6199,10 +6199,10 @@
         <v>18</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1</v>
@@ -6213,10 +6213,10 @@
         <v>19</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1</v>
@@ -6227,10 +6227,10 @@
         <v>20</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>1</v>
@@ -6241,10 +6241,10 @@
         <v>21</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>1</v>
@@ -6255,10 +6255,10 @@
         <v>22</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>1</v>
@@ -6269,10 +6269,10 @@
         <v>23</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1</v>
@@ -6283,10 +6283,10 @@
         <v>24</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>1</v>
@@ -6297,10 +6297,10 @@
         <v>25</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>1</v>
@@ -6311,10 +6311,10 @@
         <v>26</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>1</v>
@@ -6325,10 +6325,10 @@
         <v>27</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>1</v>
@@ -6339,10 +6339,10 @@
         <v>28</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>1</v>
@@ -6353,10 +6353,10 @@
         <v>29</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>1</v>
@@ -6367,10 +6367,10 @@
         <v>30</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>1</v>
@@ -6381,10 +6381,10 @@
         <v>31</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>32</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1</v>
@@ -6409,10 +6409,10 @@
         <v>33</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         <v>34</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>1</v>
@@ -6437,10 +6437,10 @@
         <v>35</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1</v>
@@ -6451,10 +6451,10 @@
         <v>36</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1</v>
@@ -6465,10 +6465,10 @@
         <v>37</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>1</v>
@@ -6479,10 +6479,10 @@
         <v>38</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>1</v>
@@ -6501,10 +6501,10 @@
         <v>1</v>
       </c>
       <c r="B336" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>1</v>
@@ -6515,10 +6515,10 @@
         <v>2</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>1</v>
@@ -6529,10 +6529,10 @@
         <v>3</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>1</v>
@@ -6543,10 +6543,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>1</v>
@@ -6557,10 +6557,10 @@
         <v>5</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>1</v>
@@ -6571,10 +6571,10 @@
         <v>6</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>1</v>
@@ -6585,10 +6585,10 @@
         <v>7</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>1</v>
@@ -6599,10 +6599,10 @@
         <v>8</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1</v>
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1</v>
@@ -6627,10 +6627,10 @@
         <v>10</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>1</v>
@@ -6641,10 +6641,10 @@
         <v>11</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>1</v>
@@ -6655,10 +6655,10 @@
         <v>12</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>1</v>
@@ -6669,10 +6669,10 @@
         <v>13</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>1</v>
@@ -6683,10 +6683,10 @@
         <v>14</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>1</v>
@@ -6697,10 +6697,10 @@
         <v>15</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>1</v>
@@ -6711,10 +6711,10 @@
         <v>16</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>1</v>
@@ -6725,10 +6725,10 @@
         <v>17</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>1</v>
@@ -6739,10 +6739,10 @@
         <v>18</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1</v>
@@ -6761,10 +6761,10 @@
         <v>1</v>
       </c>
       <c r="B356" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>2</v>
       </c>
       <c r="B357" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1</v>
@@ -6789,10 +6789,10 @@
         <v>3</v>
       </c>
       <c r="B358" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>1</v>
@@ -6803,10 +6803,10 @@
         <v>4</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>1</v>
@@ -6817,10 +6817,10 @@
         <v>5</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1</v>
@@ -6831,10 +6831,10 @@
         <v>6</v>
       </c>
       <c r="B361" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>1</v>
@@ -6845,10 +6845,10 @@
         <v>7</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>1</v>
@@ -6859,10 +6859,10 @@
         <v>8</v>
       </c>
       <c r="B363" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>1</v>
@@ -6873,10 +6873,10 @@
         <v>9</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>1</v>
@@ -6887,10 +6887,10 @@
         <v>10</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>1</v>
@@ -6901,10 +6901,10 @@
         <v>11</v>
       </c>
       <c r="B366" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>1</v>
@@ -6915,10 +6915,10 @@
         <v>12</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>1</v>
@@ -6929,10 +6929,10 @@
         <v>13</v>
       </c>
       <c r="B368" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         <v>14</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>1</v>
@@ -6957,10 +6957,10 @@
         <v>15</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>1</v>
@@ -6971,10 +6971,10 @@
         <v>16</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>1</v>
@@ -6985,10 +6985,10 @@
         <v>17</v>
       </c>
       <c r="B372" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1</v>
@@ -6999,10 +6999,10 @@
         <v>18</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>1</v>
@@ -7013,10 +7013,10 @@
         <v>19</v>
       </c>
       <c r="B374" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>1</v>
@@ -7027,10 +7027,10 @@
         <v>20</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>1</v>
@@ -7041,10 +7041,10 @@
         <v>21</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>1</v>
@@ -7055,10 +7055,10 @@
         <v>22</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>1</v>
@@ -7069,10 +7069,10 @@
         <v>23</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1</v>
@@ -7083,10 +7083,10 @@
         <v>24</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>1</v>
@@ -7097,10 +7097,10 @@
         <v>25</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1</v>
@@ -7111,10 +7111,10 @@
         <v>26</v>
       </c>
       <c r="B381" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1</v>
@@ -7125,10 +7125,10 @@
         <v>27</v>
       </c>
       <c r="B382" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1</v>
@@ -7139,10 +7139,10 @@
         <v>28</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1</v>
@@ -7153,10 +7153,10 @@
         <v>29</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1</v>
@@ -7167,10 +7167,10 @@
         <v>30</v>
       </c>
       <c r="B385" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>1</v>
@@ -7181,10 +7181,10 @@
         <v>31</v>
       </c>
       <c r="B386" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>1</v>
@@ -7195,10 +7195,10 @@
         <v>32</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>1</v>
@@ -7209,10 +7209,10 @@
         <v>33</v>
       </c>
       <c r="B388" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>1</v>
@@ -7223,10 +7223,10 @@
         <v>34</v>
       </c>
       <c r="B389" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>1</v>
@@ -7237,10 +7237,10 @@
         <v>35</v>
       </c>
       <c r="B390" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>1</v>
@@ -7251,10 +7251,10 @@
         <v>36</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1</v>
@@ -7265,10 +7265,10 @@
         <v>37</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1</v>
@@ -7279,10 +7279,10 @@
         <v>38</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>1</v>
@@ -7293,10 +7293,10 @@
         <v>39</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>1</v>
@@ -7307,10 +7307,10 @@
         <v>40</v>
       </c>
       <c r="B395" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>1</v>
@@ -7321,10 +7321,10 @@
         <v>41</v>
       </c>
       <c r="B396" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>1</v>
@@ -7335,10 +7335,10 @@
         <v>42</v>
       </c>
       <c r="B397" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>1</v>
@@ -7349,10 +7349,10 @@
         <v>43</v>
       </c>
       <c r="B398" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>1</v>
@@ -7363,10 +7363,10 @@
         <v>44</v>
       </c>
       <c r="B399" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>1</v>
@@ -7385,10 +7385,10 @@
         <v>1</v>
       </c>
       <c r="B402" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C402" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>1</v>
@@ -7399,10 +7399,10 @@
         <v>2</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>1</v>
@@ -7413,10 +7413,10 @@
         <v>3</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>1</v>
@@ -7427,10 +7427,10 @@
         <v>4</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1</v>
@@ -7441,10 +7441,10 @@
         <v>5</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1</v>
@@ -7455,10 +7455,10 @@
         <v>6</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>1</v>
@@ -7477,10 +7477,10 @@
         <v>1</v>
       </c>
       <c r="B410" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>1</v>
@@ -7491,10 +7491,10 @@
         <v>2</v>
       </c>
       <c r="B411" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>1</v>
@@ -7505,10 +7505,10 @@
         <v>3</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>1</v>
@@ -7519,10 +7519,10 @@
         <v>4</v>
       </c>
       <c r="B413" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>1</v>
@@ -7533,10 +7533,10 @@
         <v>5</v>
       </c>
       <c r="B414" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>1</v>
@@ -7547,10 +7547,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>1</v>
@@ -7561,10 +7561,10 @@
         <v>7</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>1</v>
@@ -7575,10 +7575,10 @@
         <v>8</v>
       </c>
       <c r="B417" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>1</v>
@@ -7589,10 +7589,10 @@
         <v>9</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>1</v>
@@ -7603,10 +7603,10 @@
         <v>10</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>1</v>
@@ -7617,10 +7617,10 @@
         <v>11</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>1</v>
@@ -7631,10 +7631,10 @@
         <v>12</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>1</v>
@@ -7645,10 +7645,10 @@
         <v>13</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>1</v>
@@ -7659,10 +7659,10 @@
         <v>14</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>1</v>
@@ -7673,10 +7673,10 @@
         <v>15</v>
       </c>
       <c r="B424" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>1</v>
@@ -7687,10 +7687,10 @@
         <v>16</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>1</v>
@@ -7701,10 +7701,10 @@
         <v>17</v>
       </c>
       <c r="B426" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>1</v>
@@ -7715,10 +7715,10 @@
         <v>18</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1</v>
@@ -7729,10 +7729,10 @@
         <v>19</v>
       </c>
       <c r="B428" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         <v>20</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1</v>
@@ -7757,10 +7757,10 @@
         <v>21</v>
       </c>
       <c r="B430" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>1</v>
@@ -7771,10 +7771,10 @@
         <v>22</v>
       </c>
       <c r="B431" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1</v>
@@ -7785,10 +7785,10 @@
         <v>23</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>1</v>
@@ -7799,10 +7799,10 @@
         <v>24</v>
       </c>
       <c r="B433" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>1</v>
@@ -7813,10 +7813,10 @@
         <v>25</v>
       </c>
       <c r="B434" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1</v>
@@ -7827,10 +7827,10 @@
         <v>26</v>
       </c>
       <c r="B435" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>1</v>
@@ -7841,10 +7841,10 @@
         <v>27</v>
       </c>
       <c r="B436" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>1</v>
@@ -7855,10 +7855,10 @@
         <v>28</v>
       </c>
       <c r="B437" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>1</v>
@@ -7869,10 +7869,10 @@
         <v>29</v>
       </c>
       <c r="B438" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>1</v>
@@ -7883,10 +7883,10 @@
         <v>30</v>
       </c>
       <c r="B439" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>1</v>
@@ -7897,10 +7897,10 @@
         <v>31</v>
       </c>
       <c r="B440" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>1</v>
@@ -7911,10 +7911,10 @@
         <v>32</v>
       </c>
       <c r="B441" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>1</v>
@@ -7925,10 +7925,10 @@
         <v>33</v>
       </c>
       <c r="B442" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>1</v>
@@ -7939,10 +7939,10 @@
         <v>34</v>
       </c>
       <c r="B443" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>1</v>
@@ -7953,10 +7953,10 @@
         <v>35</v>
       </c>
       <c r="B444" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>1</v>
@@ -7967,10 +7967,10 @@
         <v>36</v>
       </c>
       <c r="B445" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>1</v>
@@ -7981,10 +7981,10 @@
         <v>37</v>
       </c>
       <c r="B446" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>1</v>
@@ -7995,10 +7995,10 @@
         <v>38</v>
       </c>
       <c r="B447" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>1</v>
@@ -8009,10 +8009,10 @@
         <v>39</v>
       </c>
       <c r="B448" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>1</v>
@@ -8023,10 +8023,10 @@
         <v>40</v>
       </c>
       <c r="B449" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>1</v>
@@ -8037,10 +8037,10 @@
         <v>41</v>
       </c>
       <c r="B450" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>1</v>
@@ -8051,10 +8051,10 @@
         <v>42</v>
       </c>
       <c r="B451" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>1</v>
@@ -8065,10 +8065,10 @@
         <v>43</v>
       </c>
       <c r="B452" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>1</v>
@@ -8079,10 +8079,10 @@
         <v>44</v>
       </c>
       <c r="B453" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>1</v>
@@ -8093,10 +8093,10 @@
         <v>45</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>1</v>
@@ -8107,10 +8107,10 @@
         <v>46</v>
       </c>
       <c r="B455" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>1</v>
@@ -8121,10 +8121,10 @@
         <v>47</v>
       </c>
       <c r="B456" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>1</v>
@@ -8135,10 +8135,10 @@
         <v>48</v>
       </c>
       <c r="B457" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>1</v>
@@ -8149,10 +8149,10 @@
         <v>49</v>
       </c>
       <c r="B458" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>1</v>
@@ -8163,10 +8163,10 @@
         <v>50</v>
       </c>
       <c r="B459" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>1</v>
@@ -8177,10 +8177,10 @@
         <v>51</v>
       </c>
       <c r="B460" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>1</v>
@@ -8191,10 +8191,10 @@
         <v>52</v>
       </c>
       <c r="B461" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>1</v>
@@ -8205,10 +8205,10 @@
         <v>53</v>
       </c>
       <c r="B462" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>1</v>
@@ -8219,10 +8219,10 @@
         <v>54</v>
       </c>
       <c r="B463" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>1</v>
@@ -8233,10 +8233,10 @@
         <v>55</v>
       </c>
       <c r="B464" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>1</v>
@@ -8247,10 +8247,10 @@
         <v>56</v>
       </c>
       <c r="B465" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>1</v>
@@ -8261,10 +8261,10 @@
         <v>57</v>
       </c>
       <c r="B466" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>1</v>
@@ -8275,10 +8275,10 @@
         <v>58</v>
       </c>
       <c r="B467" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>1</v>
@@ -8289,10 +8289,10 @@
         <v>59</v>
       </c>
       <c r="B468" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         <v>60</v>
       </c>
       <c r="B469" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>1</v>
@@ -8326,10 +8326,10 @@
         <v>1</v>
       </c>
       <c r="B472" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>1</v>
@@ -8340,10 +8340,10 @@
         <v>2</v>
       </c>
       <c r="B473" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>1</v>
@@ -8354,10 +8354,10 @@
         <v>3</v>
       </c>
       <c r="B474" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>1</v>
@@ -8368,10 +8368,10 @@
         <v>4</v>
       </c>
       <c r="B475" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>1</v>
@@ -8382,10 +8382,10 @@
         <v>5</v>
       </c>
       <c r="B476" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>1</v>
@@ -8396,10 +8396,10 @@
         <v>6</v>
       </c>
       <c r="B477" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>1</v>
@@ -8410,10 +8410,10 @@
         <v>7</v>
       </c>
       <c r="B478" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>1</v>
@@ -8424,10 +8424,10 @@
         <v>8</v>
       </c>
       <c r="B479" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>1</v>
@@ -8438,10 +8438,10 @@
         <v>9</v>
       </c>
       <c r="B480" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>1</v>
@@ -8452,10 +8452,10 @@
         <v>10</v>
       </c>
       <c r="B481" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>1</v>
@@ -8472,7 +8472,7 @@
     <hyperlink ref="C12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
     <hyperlink ref="C13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
     <hyperlink ref="C14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
     <hyperlink ref="C16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
     <hyperlink ref="C17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
     <hyperlink ref="C18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A7D39B-FFB9-44F9-A39A-5B938ACC1DEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603966B8-5798-4CD7-8AAE-C06AECA0E429}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
   </si>
   <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
     <t>Next Permutation</t>
   </si>
   <si>
@@ -1426,6 +1423,9 @@
   </si>
   <si>
     <t>Minimum no. of Jumps to reach end of an array ( More of DP Problem)</t>
+  </si>
+  <si>
+    <t>Merge Intervals ( has to be covered in linked list section )</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2056,23 +2056,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>0</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2094,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2108,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2122,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2136,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2164,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2192,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2206,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -2233,8 +2233,8 @@
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
+      <c r="D16" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2247,8 +2247,8 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
+      <c r="D17" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2261,8 +2261,8 @@
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
+      <c r="D18" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>466</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -2329,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -2427,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -2605,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>1</v>
@@ -2619,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
@@ -2647,10 +2647,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
@@ -2661,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
@@ -2675,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
@@ -2689,10 +2689,10 @@
         <v>7</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
@@ -2703,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
@@ -2717,10 +2717,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -2731,10 +2731,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -2750,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>1</v>
@@ -2764,10 +2764,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1</v>
@@ -2778,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1</v>
@@ -2792,10 +2792,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -2806,10 +2806,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
@@ -2820,10 +2820,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1</v>
@@ -2834,10 +2834,10 @@
         <v>7</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1</v>
@@ -2848,10 +2848,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1</v>
@@ -2862,10 +2862,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1</v>
@@ -2876,10 +2876,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1</v>
@@ -2890,10 +2890,10 @@
         <v>11</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1</v>
@@ -2904,10 +2904,10 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
@@ -2918,10 +2918,10 @@
         <v>13</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1</v>
@@ -2932,10 +2932,10 @@
         <v>14</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1</v>
@@ -2946,10 +2946,10 @@
         <v>15</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1</v>
@@ -2960,10 +2960,10 @@
         <v>16</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1</v>
@@ -2974,10 +2974,10 @@
         <v>17</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1</v>
@@ -2988,10 +2988,10 @@
         <v>18</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1</v>
@@ -3002,10 +3002,10 @@
         <v>19</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
@@ -3016,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -3030,10 +3030,10 @@
         <v>21</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1</v>
@@ -3044,10 +3044,10 @@
         <v>22</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -3058,10 +3058,10 @@
         <v>23</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1</v>
@@ -3072,10 +3072,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1</v>
@@ -3086,10 +3086,10 @@
         <v>25</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1</v>
@@ -3100,10 +3100,10 @@
         <v>26</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
@@ -3114,10 +3114,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>1</v>
@@ -3128,10 +3128,10 @@
         <v>28</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>1</v>
@@ -3142,10 +3142,10 @@
         <v>29</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>1</v>
@@ -3156,10 +3156,10 @@
         <v>30</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -3170,10 +3170,10 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>1</v>
@@ -3184,10 +3184,10 @@
         <v>32</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
@@ -3198,10 +3198,10 @@
         <v>33</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
@@ -3212,10 +3212,10 @@
         <v>34</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
@@ -3226,10 +3226,10 @@
         <v>35</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -3240,10 +3240,10 @@
         <v>36</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1</v>
@@ -3254,10 +3254,10 @@
         <v>37</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
@@ -3268,10 +3268,10 @@
         <v>38</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>1</v>
@@ -3282,10 +3282,10 @@
         <v>39</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -3296,10 +3296,10 @@
         <v>40</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -3310,10 +3310,10 @@
         <v>41</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>1</v>
@@ -3324,10 +3324,10 @@
         <v>42</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>1</v>
@@ -3338,10 +3338,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>1</v>
@@ -3357,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -3371,10 +3371,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
@@ -3385,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>1</v>
@@ -3399,10 +3399,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>1</v>
@@ -3413,10 +3413,10 @@
         <v>5</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>1</v>
@@ -3427,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>1</v>
@@ -3441,10 +3441,10 @@
         <v>7</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>1</v>
@@ -3455,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1</v>
@@ -3469,10 +3469,10 @@
         <v>9</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
@@ -3483,10 +3483,10 @@
         <v>10</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>1</v>
@@ -3497,10 +3497,10 @@
         <v>11</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>1</v>
@@ -3511,10 +3511,10 @@
         <v>12</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>1</v>
@@ -3525,10 +3525,10 @@
         <v>13</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>1</v>
@@ -3539,10 +3539,10 @@
         <v>14</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>1</v>
@@ -3553,10 +3553,10 @@
         <v>15</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>1</v>
@@ -3567,10 +3567,10 @@
         <v>16</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>1</v>
@@ -3581,10 +3581,10 @@
         <v>17</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>1</v>
@@ -3595,10 +3595,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -3609,10 +3609,10 @@
         <v>19</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         <v>20</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>21</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
@@ -3651,10 +3651,10 @@
         <v>22</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
@@ -3665,10 +3665,10 @@
         <v>23</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
@@ -3679,10 +3679,10 @@
         <v>24</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1</v>
@@ -3693,10 +3693,10 @@
         <v>25</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>1</v>
@@ -3707,10 +3707,10 @@
         <v>26</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>1</v>
@@ -3721,10 +3721,10 @@
         <v>27</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>1</v>
@@ -3735,10 +3735,10 @@
         <v>28</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>29</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>1</v>
@@ -3763,10 +3763,10 @@
         <v>30</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>1</v>
@@ -3777,10 +3777,10 @@
         <v>31</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>1</v>
@@ -3791,10 +3791,10 @@
         <v>32</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>1</v>
@@ -3805,10 +3805,10 @@
         <v>33</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>1</v>
@@ -3819,10 +3819,10 @@
         <v>34</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>1</v>
@@ -3833,10 +3833,10 @@
         <v>35</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>1</v>
@@ -3847,10 +3847,10 @@
         <v>36</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>1</v>
@@ -3865,10 +3865,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>1</v>
@@ -3879,10 +3879,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>1</v>
@@ -3893,10 +3893,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>1</v>
@@ -3907,10 +3907,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>1</v>
@@ -3921,10 +3921,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>1</v>
@@ -3935,10 +3935,10 @@
         <v>6</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>1</v>
@@ -3949,10 +3949,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>1</v>
@@ -3963,10 +3963,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>1</v>
@@ -3977,10 +3977,10 @@
         <v>9</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>1</v>
@@ -3991,10 +3991,10 @@
         <v>10</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>1</v>
@@ -4005,10 +4005,10 @@
         <v>11</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>1</v>
@@ -4019,10 +4019,10 @@
         <v>12</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>1</v>
@@ -4033,10 +4033,10 @@
         <v>13</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>1</v>
@@ -4047,10 +4047,10 @@
         <v>14</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>1</v>
@@ -4061,10 +4061,10 @@
         <v>15</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>1</v>
@@ -4075,10 +4075,10 @@
         <v>16</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>1</v>
@@ -4089,10 +4089,10 @@
         <v>17</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         <v>18</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>1</v>
@@ -4117,10 +4117,10 @@
         <v>19</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>1</v>
@@ -4131,10 +4131,10 @@
         <v>20</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>1</v>
@@ -4145,10 +4145,10 @@
         <v>21</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>1</v>
@@ -4159,10 +4159,10 @@
         <v>22</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1</v>
@@ -4173,10 +4173,10 @@
         <v>23</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>1</v>
@@ -4187,10 +4187,10 @@
         <v>24</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>1</v>
@@ -4201,10 +4201,10 @@
         <v>25</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>1</v>
@@ -4215,10 +4215,10 @@
         <v>26</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>1</v>
@@ -4229,10 +4229,10 @@
         <v>27</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>1</v>
@@ -4243,10 +4243,10 @@
         <v>28</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>1</v>
@@ -4257,10 +4257,10 @@
         <v>29</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>1</v>
@@ -4271,10 +4271,10 @@
         <v>30</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>1</v>
@@ -4285,10 +4285,10 @@
         <v>31</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>1</v>
@@ -4299,10 +4299,10 @@
         <v>32</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>1</v>
@@ -4313,10 +4313,10 @@
         <v>33</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>1</v>
@@ -4327,10 +4327,10 @@
         <v>34</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>1</v>
@@ -4341,10 +4341,10 @@
         <v>35</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>1</v>
@@ -4355,10 +4355,10 @@
         <v>36</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>1</v>
@@ -4373,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="B177" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>1</v>
@@ -4387,10 +4387,10 @@
         <v>2</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>1</v>
@@ -4401,10 +4401,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>1</v>
@@ -4415,10 +4415,10 @@
         <v>4</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>1</v>
@@ -4429,10 +4429,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>1</v>
@@ -4443,10 +4443,10 @@
         <v>6</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>1</v>
@@ -4457,10 +4457,10 @@
         <v>7</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>1</v>
@@ -4471,10 +4471,10 @@
         <v>8</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>1</v>
@@ -4485,10 +4485,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>1</v>
@@ -4499,10 +4499,10 @@
         <v>10</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>1</v>
@@ -4513,10 +4513,10 @@
         <v>11</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>1</v>
@@ -4527,10 +4527,10 @@
         <v>12</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>1</v>
@@ -4541,10 +4541,10 @@
         <v>13</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>1</v>
@@ -4555,10 +4555,10 @@
         <v>14</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>1</v>
@@ -4569,10 +4569,10 @@
         <v>15</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>1</v>
@@ -4583,10 +4583,10 @@
         <v>16</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>1</v>
@@ -4597,10 +4597,10 @@
         <v>17</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>1</v>
@@ -4611,10 +4611,10 @@
         <v>18</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>1</v>
@@ -4625,10 +4625,10 @@
         <v>19</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>1</v>
@@ -4639,10 +4639,10 @@
         <v>20</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>1</v>
@@ -4653,10 +4653,10 @@
         <v>21</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>22</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>1</v>
@@ -4681,10 +4681,10 @@
         <v>23</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>1</v>
@@ -4695,10 +4695,10 @@
         <v>24</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>1</v>
@@ -4709,10 +4709,10 @@
         <v>25</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>1</v>
@@ -4723,10 +4723,10 @@
         <v>26</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>1</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>1</v>
@@ -4751,10 +4751,10 @@
         <v>28</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>1</v>
@@ -4765,10 +4765,10 @@
         <v>29</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>1</v>
@@ -4779,10 +4779,10 @@
         <v>30</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>1</v>
@@ -4793,10 +4793,10 @@
         <v>31</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>1</v>
@@ -4807,10 +4807,10 @@
         <v>32</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>1</v>
@@ -4821,10 +4821,10 @@
         <v>33</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>1</v>
@@ -4835,10 +4835,10 @@
         <v>34</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>1</v>
@@ -4849,10 +4849,10 @@
         <v>35</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>1</v>
@@ -4873,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>1</v>
@@ -4887,10 +4887,10 @@
         <v>2</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>1</v>
@@ -4901,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>1</v>
@@ -4915,10 +4915,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>1</v>
@@ -4929,10 +4929,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1</v>
@@ -4957,10 +4957,10 @@
         <v>7</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>1</v>
@@ -4971,10 +4971,10 @@
         <v>8</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>1</v>
@@ -4985,10 +4985,10 @@
         <v>9</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>1</v>
@@ -4999,10 +4999,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>1</v>
@@ -5013,10 +5013,10 @@
         <v>11</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>1</v>
@@ -5027,10 +5027,10 @@
         <v>12</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>1</v>
@@ -5041,10 +5041,10 @@
         <v>13</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>1</v>
@@ -5055,10 +5055,10 @@
         <v>14</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>1</v>
@@ -5069,10 +5069,10 @@
         <v>15</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>1</v>
@@ -5083,10 +5083,10 @@
         <v>16</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>1</v>
@@ -5097,10 +5097,10 @@
         <v>17</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>1</v>
@@ -5111,10 +5111,10 @@
         <v>18</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>1</v>
@@ -5125,10 +5125,10 @@
         <v>19</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>1</v>
@@ -5139,10 +5139,10 @@
         <v>20</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>1</v>
@@ -5153,10 +5153,10 @@
         <v>21</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>1</v>
@@ -5167,10 +5167,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>1</v>
@@ -5189,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1</v>
@@ -5203,10 +5203,10 @@
         <v>2</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1</v>
@@ -5217,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1</v>
@@ -5231,10 +5231,10 @@
         <v>4</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1</v>
@@ -5245,10 +5245,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1</v>
@@ -5259,10 +5259,10 @@
         <v>6</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1</v>
@@ -5273,10 +5273,10 @@
         <v>7</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1</v>
@@ -5287,10 +5287,10 @@
         <v>8</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1</v>
@@ -5301,10 +5301,10 @@
         <v>9</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1</v>
@@ -5315,10 +5315,10 @@
         <v>10</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1</v>
@@ -5329,10 +5329,10 @@
         <v>11</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         <v>12</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1</v>
@@ -5357,10 +5357,10 @@
         <v>13</v>
       </c>
       <c r="B250" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1</v>
@@ -5371,10 +5371,10 @@
         <v>14</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1</v>
@@ -5385,10 +5385,10 @@
         <v>15</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1</v>
@@ -5399,10 +5399,10 @@
         <v>16</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1</v>
@@ -5413,10 +5413,10 @@
         <v>17</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1</v>
@@ -5427,10 +5427,10 @@
         <v>18</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1</v>
@@ -5441,10 +5441,10 @@
         <v>19</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1</v>
@@ -5455,10 +5455,10 @@
         <v>20</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1</v>
@@ -5469,10 +5469,10 @@
         <v>21</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1</v>
@@ -5483,10 +5483,10 @@
         <v>22</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1</v>
@@ -5497,10 +5497,10 @@
         <v>23</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1</v>
@@ -5511,10 +5511,10 @@
         <v>24</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1</v>
@@ -5525,10 +5525,10 @@
         <v>25</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1</v>
@@ -5539,10 +5539,10 @@
         <v>26</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1</v>
@@ -5553,10 +5553,10 @@
         <v>27</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1</v>
@@ -5567,10 +5567,10 @@
         <v>28</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1</v>
@@ -5581,10 +5581,10 @@
         <v>29</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1</v>
@@ -5595,10 +5595,10 @@
         <v>30</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1</v>
@@ -5609,10 +5609,10 @@
         <v>31</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         <v>32</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1</v>
@@ -5637,10 +5637,10 @@
         <v>33</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1</v>
@@ -5651,10 +5651,10 @@
         <v>34</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1</v>
@@ -5665,10 +5665,10 @@
         <v>35</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1</v>
@@ -5687,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1</v>
@@ -5701,10 +5701,10 @@
         <v>2</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1</v>
@@ -5715,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1</v>
@@ -5729,10 +5729,10 @@
         <v>4</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         <v>5</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1</v>
@@ -5757,10 +5757,10 @@
         <v>6</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1</v>
@@ -5771,10 +5771,10 @@
         <v>7</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1</v>
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1</v>
@@ -5799,10 +5799,10 @@
         <v>9</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1</v>
@@ -5813,10 +5813,10 @@
         <v>10</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1</v>
@@ -5827,10 +5827,10 @@
         <v>11</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1</v>
@@ -5841,10 +5841,10 @@
         <v>12</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1</v>
@@ -5855,10 +5855,10 @@
         <v>13</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1</v>
@@ -5869,10 +5869,10 @@
         <v>14</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1</v>
@@ -5883,10 +5883,10 @@
         <v>15</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1</v>
@@ -5897,10 +5897,10 @@
         <v>16</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1</v>
@@ -5911,10 +5911,10 @@
         <v>17</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1</v>
@@ -5925,10 +5925,10 @@
         <v>18</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1</v>
@@ -5939,10 +5939,10 @@
         <v>19</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>1</v>
@@ -5961,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>1</v>
@@ -5975,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1</v>
@@ -5989,10 +5989,10 @@
         <v>3</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1</v>
@@ -6003,10 +6003,10 @@
         <v>4</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1</v>
@@ -6017,10 +6017,10 @@
         <v>5</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>1</v>
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>1</v>
@@ -6045,10 +6045,10 @@
         <v>7</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>1</v>
@@ -6059,10 +6059,10 @@
         <v>8</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>1</v>
@@ -6073,10 +6073,10 @@
         <v>9</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>1</v>
@@ -6101,10 +6101,10 @@
         <v>11</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>1</v>
@@ -6115,10 +6115,10 @@
         <v>12</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>1</v>
@@ -6129,10 +6129,10 @@
         <v>13</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>1</v>
@@ -6143,10 +6143,10 @@
         <v>14</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>1</v>
@@ -6157,10 +6157,10 @@
         <v>15</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>1</v>
@@ -6171,10 +6171,10 @@
         <v>16</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>1</v>
@@ -6185,10 +6185,10 @@
         <v>17</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>1</v>
@@ -6199,10 +6199,10 @@
         <v>18</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1</v>
@@ -6213,10 +6213,10 @@
         <v>19</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1</v>
@@ -6227,10 +6227,10 @@
         <v>20</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>1</v>
@@ -6241,10 +6241,10 @@
         <v>21</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>1</v>
@@ -6255,10 +6255,10 @@
         <v>22</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>1</v>
@@ -6269,10 +6269,10 @@
         <v>23</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1</v>
@@ -6283,10 +6283,10 @@
         <v>24</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>1</v>
@@ -6297,10 +6297,10 @@
         <v>25</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>1</v>
@@ -6311,10 +6311,10 @@
         <v>26</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>1</v>
@@ -6325,10 +6325,10 @@
         <v>27</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>1</v>
@@ -6339,10 +6339,10 @@
         <v>28</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>1</v>
@@ -6353,10 +6353,10 @@
         <v>29</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>1</v>
@@ -6367,10 +6367,10 @@
         <v>30</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>1</v>
@@ -6381,10 +6381,10 @@
         <v>31</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>32</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1</v>
@@ -6409,10 +6409,10 @@
         <v>33</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         <v>34</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>1</v>
@@ -6437,10 +6437,10 @@
         <v>35</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1</v>
@@ -6451,10 +6451,10 @@
         <v>36</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1</v>
@@ -6465,10 +6465,10 @@
         <v>37</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>1</v>
@@ -6479,10 +6479,10 @@
         <v>38</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>1</v>
@@ -6501,10 +6501,10 @@
         <v>1</v>
       </c>
       <c r="B336" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>1</v>
@@ -6515,10 +6515,10 @@
         <v>2</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>1</v>
@@ -6529,10 +6529,10 @@
         <v>3</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>1</v>
@@ -6543,10 +6543,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>1</v>
@@ -6557,10 +6557,10 @@
         <v>5</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>1</v>
@@ -6571,10 +6571,10 @@
         <v>6</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>1</v>
@@ -6585,10 +6585,10 @@
         <v>7</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>1</v>
@@ -6599,10 +6599,10 @@
         <v>8</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1</v>
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1</v>
@@ -6627,10 +6627,10 @@
         <v>10</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>1</v>
@@ -6641,10 +6641,10 @@
         <v>11</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>1</v>
@@ -6655,10 +6655,10 @@
         <v>12</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>1</v>
@@ -6669,10 +6669,10 @@
         <v>13</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>1</v>
@@ -6683,10 +6683,10 @@
         <v>14</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>1</v>
@@ -6697,10 +6697,10 @@
         <v>15</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>1</v>
@@ -6711,10 +6711,10 @@
         <v>16</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>1</v>
@@ -6725,10 +6725,10 @@
         <v>17</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>1</v>
@@ -6739,10 +6739,10 @@
         <v>18</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1</v>
@@ -6761,10 +6761,10 @@
         <v>1</v>
       </c>
       <c r="B356" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>2</v>
       </c>
       <c r="B357" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1</v>
@@ -6789,10 +6789,10 @@
         <v>3</v>
       </c>
       <c r="B358" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>1</v>
@@ -6803,10 +6803,10 @@
         <v>4</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>1</v>
@@ -6817,10 +6817,10 @@
         <v>5</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1</v>
@@ -6831,10 +6831,10 @@
         <v>6</v>
       </c>
       <c r="B361" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>1</v>
@@ -6845,10 +6845,10 @@
         <v>7</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>1</v>
@@ -6859,10 +6859,10 @@
         <v>8</v>
       </c>
       <c r="B363" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>1</v>
@@ -6873,10 +6873,10 @@
         <v>9</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>1</v>
@@ -6887,10 +6887,10 @@
         <v>10</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>1</v>
@@ -6901,10 +6901,10 @@
         <v>11</v>
       </c>
       <c r="B366" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>1</v>
@@ -6915,10 +6915,10 @@
         <v>12</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>1</v>
@@ -6929,10 +6929,10 @@
         <v>13</v>
       </c>
       <c r="B368" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         <v>14</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>1</v>
@@ -6957,10 +6957,10 @@
         <v>15</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>1</v>
@@ -6971,10 +6971,10 @@
         <v>16</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>1</v>
@@ -6985,10 +6985,10 @@
         <v>17</v>
       </c>
       <c r="B372" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1</v>
@@ -6999,10 +6999,10 @@
         <v>18</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>1</v>
@@ -7013,10 +7013,10 @@
         <v>19</v>
       </c>
       <c r="B374" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>1</v>
@@ -7027,10 +7027,10 @@
         <v>20</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>1</v>
@@ -7041,10 +7041,10 @@
         <v>21</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>1</v>
@@ -7055,10 +7055,10 @@
         <v>22</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>1</v>
@@ -7069,10 +7069,10 @@
         <v>23</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1</v>
@@ -7083,10 +7083,10 @@
         <v>24</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>1</v>
@@ -7097,10 +7097,10 @@
         <v>25</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1</v>
@@ -7111,10 +7111,10 @@
         <v>26</v>
       </c>
       <c r="B381" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1</v>
@@ -7125,10 +7125,10 @@
         <v>27</v>
       </c>
       <c r="B382" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1</v>
@@ -7139,10 +7139,10 @@
         <v>28</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1</v>
@@ -7153,10 +7153,10 @@
         <v>29</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1</v>
@@ -7167,10 +7167,10 @@
         <v>30</v>
       </c>
       <c r="B385" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>1</v>
@@ -7181,10 +7181,10 @@
         <v>31</v>
       </c>
       <c r="B386" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>1</v>
@@ -7195,10 +7195,10 @@
         <v>32</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>1</v>
@@ -7209,10 +7209,10 @@
         <v>33</v>
       </c>
       <c r="B388" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>1</v>
@@ -7223,10 +7223,10 @@
         <v>34</v>
       </c>
       <c r="B389" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>1</v>
@@ -7237,10 +7237,10 @@
         <v>35</v>
       </c>
       <c r="B390" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>1</v>
@@ -7251,10 +7251,10 @@
         <v>36</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1</v>
@@ -7265,10 +7265,10 @@
         <v>37</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1</v>
@@ -7279,10 +7279,10 @@
         <v>38</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>1</v>
@@ -7293,10 +7293,10 @@
         <v>39</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>1</v>
@@ -7307,10 +7307,10 @@
         <v>40</v>
       </c>
       <c r="B395" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>1</v>
@@ -7321,10 +7321,10 @@
         <v>41</v>
       </c>
       <c r="B396" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>1</v>
@@ -7335,10 +7335,10 @@
         <v>42</v>
       </c>
       <c r="B397" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>1</v>
@@ -7349,10 +7349,10 @@
         <v>43</v>
       </c>
       <c r="B398" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>1</v>
@@ -7363,10 +7363,10 @@
         <v>44</v>
       </c>
       <c r="B399" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>1</v>
@@ -7385,10 +7385,10 @@
         <v>1</v>
       </c>
       <c r="B402" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C402" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>1</v>
@@ -7399,10 +7399,10 @@
         <v>2</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>1</v>
@@ -7413,10 +7413,10 @@
         <v>3</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>1</v>
@@ -7427,10 +7427,10 @@
         <v>4</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1</v>
@@ -7441,10 +7441,10 @@
         <v>5</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1</v>
@@ -7455,10 +7455,10 @@
         <v>6</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>1</v>
@@ -7477,10 +7477,10 @@
         <v>1</v>
       </c>
       <c r="B410" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>1</v>
@@ -7491,10 +7491,10 @@
         <v>2</v>
       </c>
       <c r="B411" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>1</v>
@@ -7505,10 +7505,10 @@
         <v>3</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>1</v>
@@ -7519,10 +7519,10 @@
         <v>4</v>
       </c>
       <c r="B413" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>1</v>
@@ -7533,10 +7533,10 @@
         <v>5</v>
       </c>
       <c r="B414" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>1</v>
@@ -7547,10 +7547,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>1</v>
@@ -7561,10 +7561,10 @@
         <v>7</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>1</v>
@@ -7575,10 +7575,10 @@
         <v>8</v>
       </c>
       <c r="B417" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>1</v>
@@ -7589,10 +7589,10 @@
         <v>9</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>1</v>
@@ -7603,10 +7603,10 @@
         <v>10</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>1</v>
@@ -7617,10 +7617,10 @@
         <v>11</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>1</v>
@@ -7631,10 +7631,10 @@
         <v>12</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>1</v>
@@ -7645,10 +7645,10 @@
         <v>13</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>1</v>
@@ -7659,10 +7659,10 @@
         <v>14</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>1</v>
@@ -7673,10 +7673,10 @@
         <v>15</v>
       </c>
       <c r="B424" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>1</v>
@@ -7687,10 +7687,10 @@
         <v>16</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>1</v>
@@ -7701,10 +7701,10 @@
         <v>17</v>
       </c>
       <c r="B426" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>1</v>
@@ -7715,10 +7715,10 @@
         <v>18</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1</v>
@@ -7729,10 +7729,10 @@
         <v>19</v>
       </c>
       <c r="B428" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         <v>20</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1</v>
@@ -7757,10 +7757,10 @@
         <v>21</v>
       </c>
       <c r="B430" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>1</v>
@@ -7771,10 +7771,10 @@
         <v>22</v>
       </c>
       <c r="B431" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1</v>
@@ -7785,10 +7785,10 @@
         <v>23</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>1</v>
@@ -7799,10 +7799,10 @@
         <v>24</v>
       </c>
       <c r="B433" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>1</v>
@@ -7813,10 +7813,10 @@
         <v>25</v>
       </c>
       <c r="B434" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1</v>
@@ -7827,10 +7827,10 @@
         <v>26</v>
       </c>
       <c r="B435" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>1</v>
@@ -7841,10 +7841,10 @@
         <v>27</v>
       </c>
       <c r="B436" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>1</v>
@@ -7855,10 +7855,10 @@
         <v>28</v>
       </c>
       <c r="B437" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>1</v>
@@ -7869,10 +7869,10 @@
         <v>29</v>
       </c>
       <c r="B438" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>1</v>
@@ -7883,10 +7883,10 @@
         <v>30</v>
       </c>
       <c r="B439" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>1</v>
@@ -7897,10 +7897,10 @@
         <v>31</v>
       </c>
       <c r="B440" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>1</v>
@@ -7911,10 +7911,10 @@
         <v>32</v>
       </c>
       <c r="B441" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>1</v>
@@ -7925,10 +7925,10 @@
         <v>33</v>
       </c>
       <c r="B442" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>1</v>
@@ -7939,10 +7939,10 @@
         <v>34</v>
       </c>
       <c r="B443" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>1</v>
@@ -7953,10 +7953,10 @@
         <v>35</v>
       </c>
       <c r="B444" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>1</v>
@@ -7967,10 +7967,10 @@
         <v>36</v>
       </c>
       <c r="B445" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>1</v>
@@ -7981,10 +7981,10 @@
         <v>37</v>
       </c>
       <c r="B446" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>1</v>
@@ -7995,10 +7995,10 @@
         <v>38</v>
       </c>
       <c r="B447" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>1</v>
@@ -8009,10 +8009,10 @@
         <v>39</v>
       </c>
       <c r="B448" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>1</v>
@@ -8023,10 +8023,10 @@
         <v>40</v>
       </c>
       <c r="B449" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>1</v>
@@ -8037,10 +8037,10 @@
         <v>41</v>
       </c>
       <c r="B450" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>1</v>
@@ -8051,10 +8051,10 @@
         <v>42</v>
       </c>
       <c r="B451" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>1</v>
@@ -8065,10 +8065,10 @@
         <v>43</v>
       </c>
       <c r="B452" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>1</v>
@@ -8079,10 +8079,10 @@
         <v>44</v>
       </c>
       <c r="B453" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>1</v>
@@ -8093,10 +8093,10 @@
         <v>45</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>1</v>
@@ -8107,10 +8107,10 @@
         <v>46</v>
       </c>
       <c r="B455" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>1</v>
@@ -8121,10 +8121,10 @@
         <v>47</v>
       </c>
       <c r="B456" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>1</v>
@@ -8135,10 +8135,10 @@
         <v>48</v>
       </c>
       <c r="B457" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>1</v>
@@ -8149,10 +8149,10 @@
         <v>49</v>
       </c>
       <c r="B458" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>1</v>
@@ -8163,10 +8163,10 @@
         <v>50</v>
       </c>
       <c r="B459" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>1</v>
@@ -8177,10 +8177,10 @@
         <v>51</v>
       </c>
       <c r="B460" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>1</v>
@@ -8191,10 +8191,10 @@
         <v>52</v>
       </c>
       <c r="B461" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>1</v>
@@ -8205,10 +8205,10 @@
         <v>53</v>
       </c>
       <c r="B462" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>1</v>
@@ -8219,10 +8219,10 @@
         <v>54</v>
       </c>
       <c r="B463" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>1</v>
@@ -8233,10 +8233,10 @@
         <v>55</v>
       </c>
       <c r="B464" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>1</v>
@@ -8247,10 +8247,10 @@
         <v>56</v>
       </c>
       <c r="B465" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>1</v>
@@ -8261,10 +8261,10 @@
         <v>57</v>
       </c>
       <c r="B466" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>1</v>
@@ -8275,10 +8275,10 @@
         <v>58</v>
       </c>
       <c r="B467" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>1</v>
@@ -8289,10 +8289,10 @@
         <v>59</v>
       </c>
       <c r="B468" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         <v>60</v>
       </c>
       <c r="B469" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>1</v>
@@ -8326,10 +8326,10 @@
         <v>1</v>
       </c>
       <c r="B472" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>1</v>
@@ -8340,10 +8340,10 @@
         <v>2</v>
       </c>
       <c r="B473" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>1</v>
@@ -8354,10 +8354,10 @@
         <v>3</v>
       </c>
       <c r="B474" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>1</v>
@@ -8368,10 +8368,10 @@
         <v>4</v>
       </c>
       <c r="B475" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>1</v>
@@ -8382,10 +8382,10 @@
         <v>5</v>
       </c>
       <c r="B476" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>1</v>
@@ -8396,10 +8396,10 @@
         <v>6</v>
       </c>
       <c r="B477" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>1</v>
@@ -8410,10 +8410,10 @@
         <v>7</v>
       </c>
       <c r="B478" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>1</v>
@@ -8424,10 +8424,10 @@
         <v>8</v>
       </c>
       <c r="B479" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>1</v>
@@ -8438,10 +8438,10 @@
         <v>9</v>
       </c>
       <c r="B480" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>1</v>
@@ -8452,10 +8452,10 @@
         <v>10</v>
       </c>
       <c r="B481" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>1</v>
@@ -8476,7 +8476,7 @@
     <hyperlink ref="C16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
     <hyperlink ref="C17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
     <hyperlink ref="C18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="C19" r:id="rId14" display="Merge Intervals" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
     <hyperlink ref="C20" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
     <hyperlink ref="C21" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
     <hyperlink ref="C22" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603966B8-5798-4CD7-8AAE-C06AECA0E429}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BA51D-B90C-43E0-990C-3B37B47931D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2303,8 +2303,8 @@
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
+      <c r="D21" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2317,8 +2317,8 @@
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
+      <c r="D22" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2331,8 +2331,8 @@
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
+      <c r="D23" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.4">
@@ -2345,8 +2345,8 @@
       <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
+      <c r="D24" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BA51D-B90C-43E0-990C-3B37B47931D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCEBFD0-2BB3-4EF9-AE05-9007546963F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="2460" yWindow="840" windowWidth="9300" windowHeight="11220" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2044,7 +2044,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhanshu Singh\Desktop\DSA450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCEBFD0-2BB3-4EF9-AE05-9007546963F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D654685-1D91-470B-8FC5-8870B84FE8FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="840" windowWidth="9300" windowHeight="11220" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="472">
   <si>
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
@@ -1419,22 +1419,44 @@
     <t>SNO</t>
   </si>
   <si>
-    <t xml:space="preserve"> GITHUB LINK : </t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array ( More of DP Problem)</t>
-  </si>
-  <si>
     <t>Merge Intervals ( has to be covered in linked list section )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GITHUB LINK : https://github.com/sudhanshuhunny/DSA450</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array </t>
+  </si>
+  <si>
+    <t>DP Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked List </t>
+  </si>
+  <si>
+    <t>Do it Later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP and Set is used </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1518,7 +1540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1632,6 +1654,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1642,91 +1670,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2041,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2052,19 +2083,20 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
         <v>463</v>
       </c>
@@ -2077,13 +2109,16 @@
       <c r="D4" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2097,7 +2132,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2111,7 +2146,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2139,7 +2174,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2153,7 +2188,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2167,7 +2202,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2195,7 +2230,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2217,13 +2252,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2237,7 +2275,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2251,7 +2289,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2265,7 +2303,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2273,13 +2311,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2292,8 +2333,11 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2307,7 +2351,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2321,7 +2365,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2335,7 +2379,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2349,7 +2393,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2363,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2376,8 +2420,11 @@
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2387,11 +2434,11 @@
       <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D27" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -2401,11 +2448,11 @@
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D28" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>24</v>
       </c>
@@ -2419,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>25</v>
       </c>
@@ -2433,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>26</v>
       </c>
@@ -2447,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>27</v>
       </c>
